--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/10/seed1/result_data_RandomForest.xlsx
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.09009999999999</v>
+        <v>-21.11820000000002</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.70119999999999</v>
+        <v>-10.85969999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.668599999999993</v>
+        <v>-6.453399999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.718</v>
+        <v>-14.54380000000002</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.64870000000001</v>
+        <v>-21.6133</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.78499999999999</v>
+        <v>-11.8207</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.621799999999997</v>
+        <v>-7.749600000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.24639999999999</v>
+        <v>-20.16889999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0387</v>
+        <v>-12.15479999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.402399999999995</v>
+        <v>-8.351799999999992</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
